--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value972.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value972.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.12254122951849</v>
+        <v>0.8181886076927185</v>
       </c>
       <c r="B1">
-        <v>1.507372584172655</v>
+        <v>1.147456288337708</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.597726225852966</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.71535062789917</v>
       </c>
       <c r="E1">
-        <v>1.152730098823648</v>
+        <v>2.240630388259888</v>
       </c>
     </row>
   </sheetData>
